--- a/_static/global/rankrankings/workers_rank_mat_asian.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_asian.xlsx
@@ -40,15 +40,15 @@
     <t>5c27de12a2b00a00018b2c16</t>
   </si>
   <si>
+    <t>5f2c1a97a6809c060fec8820</t>
+  </si>
+  <si>
+    <t>60b1742bce2b39e0f1d19a1a</t>
+  </si>
+  <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
-    <t>5f2c1a97a6809c060fec8820</t>
-  </si>
-  <si>
-    <t>60b1742bce2b39e0f1d19a1a</t>
-  </si>
-  <si>
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
@@ -76,13 +76,13 @@
     <t>Ankai</t>
   </si>
   <si>
+    <t>Maggie</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
     <t>Annes</t>
-  </si>
-  <si>
-    <t>Maggie</t>
-  </si>
-  <si>
-    <t>Sabrina</t>
   </si>
   <si>
     <t>Aalap</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>14.0545460118045</v>
+        <v>14.36475064273752</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>13.36895208135014</v>
+        <v>13.4427811560038</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -571,7 +571,7 @@
         <v>32</v>
       </c>
       <c r="F4">
-        <v>13.06452088572613</v>
+        <v>13.32257368402617</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -597,7 +597,7 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>13.00660968671283</v>
+        <v>13.02548504840682</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>12.47304481496769</v>
+        <v>12.16366162123603</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>10.33809696990802</v>
+        <v>10.35758251781631</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -675,7 +675,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>10.20315367884972</v>
+        <v>10.23661900101856</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>8.103906197368788</v>
+        <v>8.201924197465678</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -727,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.074991964361302</v>
+        <v>5.441561929436489</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>2.409855441788246</v>
+        <v>2.330660576781288</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.322034524266674</v>
+        <v>2.005372734962068</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>1.095248863028851</v>
+        <v>1.34066941120993</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_asian.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_asian.xlsx
@@ -43,12 +43,12 @@
     <t>5f2c1a97a6809c060fec8820</t>
   </si>
   <si>
+    <t>60bd88b8fc436774352f53b9</t>
+  </si>
+  <si>
     <t>60b1742bce2b39e0f1d19a1a</t>
   </si>
   <si>
-    <t>60bd88b8fc436774352f53b9</t>
-  </si>
-  <si>
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
@@ -79,10 +79,10 @@
     <t>Maggie</t>
   </si>
   <si>
+    <t>Annes</t>
+  </si>
+  <si>
     <t>Sabrina</t>
-  </si>
-  <si>
-    <t>Annes</t>
   </si>
   <si>
     <t>Aalap</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>14.36475064273752</v>
+        <v>14.09110926329862</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>13.4427811560038</v>
+        <v>13.45595228309568</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -571,7 +571,7 @@
         <v>32</v>
       </c>
       <c r="F4">
-        <v>13.32257368402617</v>
+        <v>13.21138131302576</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -597,7 +597,7 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>13.02548504840682</v>
+        <v>13.05510090847672</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>12.16366162123603</v>
+        <v>12.11138011880338</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>10.35758251781631</v>
+        <v>10.38169935728711</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -675,7 +675,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>10.23661900101856</v>
+        <v>10.3148949458874</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>8.201924197465678</v>
+        <v>8.206853693142603</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -727,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.441561929436489</v>
+        <v>5.433954494785023</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>2.330660576781288</v>
+        <v>2.475607795998219</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.005372734962068</v>
+        <v>2.127299389597505</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>1.34066941120993</v>
+        <v>1.091413571818724</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_asian.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_asian.xlsx
@@ -40,70 +40,70 @@
     <t>5c27de12a2b00a00018b2c16</t>
   </si>
   <si>
+    <t>60bd88b8fc436774352f53b9</t>
+  </si>
+  <si>
+    <t>60b1742bce2b39e0f1d19a1a</t>
+  </si>
+  <si>
     <t>5f2c1a97a6809c060fec8820</t>
   </si>
   <si>
-    <t>60bd88b8fc436774352f53b9</t>
-  </si>
-  <si>
-    <t>60b1742bce2b39e0f1d19a1a</t>
-  </si>
-  <si>
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
+    <t>5ff3974450a7199965624df7</t>
+  </si>
+  <si>
     <t>60b7cd4be2d4cc6bb252e016</t>
   </si>
   <si>
-    <t>5ff3974450a7199965624df7</t>
-  </si>
-  <si>
     <t>60a71d27a66fac796ad4de6f</t>
   </si>
   <si>
     <t>5697d4ae7183b8000d0fc201</t>
   </si>
   <si>
+    <t>60b76ee2219ac1ce25ccea43</t>
+  </si>
+  <si>
     <t>60186dc2cc1aa8103499603a</t>
   </si>
   <si>
-    <t>60b76ee2219ac1ce25ccea43</t>
-  </si>
-  <si>
     <t>60863a15760523386e761cfb</t>
   </si>
   <si>
     <t>Ankai</t>
   </si>
   <si>
+    <t>Annes</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
     <t>Maggie</t>
   </si>
   <si>
-    <t>Annes</t>
-  </si>
-  <si>
-    <t>Sabrina</t>
-  </si>
-  <si>
     <t>Aalap</t>
   </si>
   <si>
+    <t>Anh</t>
+  </si>
+  <si>
     <t>Chris</t>
   </si>
   <si>
-    <t>Anh</t>
-  </si>
-  <si>
     <t>Jennifer</t>
   </si>
   <si>
     <t>Tu</t>
   </si>
   <si>
+    <t>Richie</t>
+  </si>
+  <si>
     <t>Emily</t>
-  </si>
-  <si>
-    <t>Richie</t>
   </si>
   <si>
     <t>Roshni</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>14.09110926329862</v>
+        <v>14.4555622440282</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>13.45595228309568</v>
+        <v>13.49322534775249</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -571,7 +571,7 @@
         <v>32</v>
       </c>
       <c r="F4">
-        <v>13.21138131302576</v>
+        <v>13.0399847539705</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -597,7 +597,7 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>13.05510090847672</v>
+        <v>13.02496522416173</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>12.11138011880338</v>
+        <v>12.06802414159128</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>10.38169935728711</v>
+        <v>10.28276308106538</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -663,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -675,7 +675,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>10.3148949458874</v>
+        <v>10.06553779822961</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>8.206853693142603</v>
+        <v>8.109626341792918</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -727,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.433954494785023</v>
+        <v>5.328503579847605</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -741,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -750,10 +750,10 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11">
-        <v>2.475607795998219</v>
+        <v>2.335090669544204</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -767,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -776,10 +776,10 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>2.127299389597505</v>
+        <v>2.285979158260564</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>1.091413571818724</v>
+        <v>1.402438053655847</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_asian.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_asian.xlsx
@@ -43,12 +43,12 @@
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
+    <t>5f2c1a97a6809c060fec8820</t>
+  </si>
+  <si>
     <t>60b1742bce2b39e0f1d19a1a</t>
   </si>
   <si>
-    <t>5f2c1a97a6809c060fec8820</t>
-  </si>
-  <si>
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
@@ -79,10 +79,10 @@
     <t>Annes</t>
   </si>
   <si>
+    <t>Maggie</t>
+  </si>
+  <si>
     <t>Sabrina</t>
-  </si>
-  <si>
-    <t>Maggie</t>
   </si>
   <si>
     <t>Aalap</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>14.4555622440282</v>
+        <v>14.1030709486882</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>13.49322534775249</v>
+        <v>13.35197478321719</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -571,7 +571,7 @@
         <v>32</v>
       </c>
       <c r="F4">
-        <v>13.0399847539705</v>
+        <v>13.29676972317081</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -597,7 +597,7 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>13.02496522416173</v>
+        <v>13.03514933185946</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>12.06802414159128</v>
+        <v>12.21026352735557</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>10.28276308106538</v>
+        <v>10.43208549230954</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -675,7 +675,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>10.06553779822961</v>
+        <v>10.35892207049924</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>8.109626341792918</v>
+        <v>8.453463493118818</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -727,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.328503579847605</v>
+        <v>5.467581216082982</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>2.335090669544204</v>
+        <v>2.432689833958036</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>2.285979158260564</v>
+        <v>2.042059906310699</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>1.402438053655847</v>
+        <v>1.409394357364049</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_asian.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_asian.xlsx
@@ -40,24 +40,24 @@
     <t>5c27de12a2b00a00018b2c16</t>
   </si>
   <si>
+    <t>60b1742bce2b39e0f1d19a1a</t>
+  </si>
+  <si>
     <t>60bd88b8fc436774352f53b9</t>
   </si>
   <si>
     <t>5f2c1a97a6809c060fec8820</t>
   </si>
   <si>
-    <t>60b1742bce2b39e0f1d19a1a</t>
-  </si>
-  <si>
     <t>5f7cbf8a2fe61814cae2ce8b</t>
   </si>
   <si>
+    <t>60b7cd4be2d4cc6bb252e016</t>
+  </si>
+  <si>
     <t>5ff3974450a7199965624df7</t>
   </si>
   <si>
-    <t>60b7cd4be2d4cc6bb252e016</t>
-  </si>
-  <si>
     <t>60a71d27a66fac796ad4de6f</t>
   </si>
   <si>
@@ -76,22 +76,22 @@
     <t>Ankai</t>
   </si>
   <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
     <t>Annes</t>
   </si>
   <si>
     <t>Maggie</t>
   </si>
   <si>
-    <t>Sabrina</t>
-  </si>
-  <si>
     <t>Aalap</t>
   </si>
   <si>
+    <t>Chris</t>
+  </si>
+  <si>
     <t>Anh</t>
-  </si>
-  <si>
-    <t>Chris</t>
   </si>
   <si>
     <t>Jennifer</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>14.36489732955242</v>
+        <v>14.39815288238974</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>13.45093157762697</v>
+        <v>13.47099616876117</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -571,7 +571,7 @@
         <v>32</v>
       </c>
       <c r="F4">
-        <v>13.24590183972602</v>
+        <v>13.17858138422446</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -597,7 +597,7 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>13.16029971904301</v>
+        <v>13.01112575673547</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>12.247818214573</v>
+        <v>12.3482248776141</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>10.30328183410595</v>
+        <v>10.34214312864992</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -663,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -675,7 +675,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>10.17991156201473</v>
+        <v>10.06224892236708</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>8.424071716781192</v>
+        <v>8.014854919004936</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -727,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.018050929083364</v>
+        <v>5.498532721451911</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>2.035815033702857</v>
+        <v>2.228636730085874</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>2.015739194295643</v>
+        <v>2.15781329499561</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>1.284753493958485</v>
+        <v>1.121832258144104</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
